--- a/classification/droptc/message/drone-sbert/unfreeze/87212562/prediction.xlsx
+++ b/classification/droptc/message/drone-sbert/unfreeze/87212562/prediction.xlsx
@@ -505,12 +505,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'ParamViolation']</t>
         </is>
       </c>
     </row>
@@ -721,12 +721,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 1, 0, 0]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'RegulationViolation']</t>
         </is>
       </c>
     </row>
@@ -1072,12 +1072,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['HardwareFault']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -1126,12 +1126,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 0, 0, 0, 0]</t>
+          <t>[0, 0, 1, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['HardwareFault']</t>
+          <t>['HardwareFault', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -1153,12 +1153,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 1]</t>
+          <t>[0, 0, 1, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['SoftwareFault']</t>
+          <t>['HardwareFault', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -1396,12 +1396,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 0]</t>
+          <t>[1, 1, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault']</t>
+          <t>['Normal', 'SurroundingEnvironment', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -1450,12 +1450,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault']</t>
+          <t>['Normal', 'HardwareFault', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -1882,12 +1882,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 1, 0]</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['CommunicationIssue']</t>
         </is>
       </c>
     </row>
@@ -1936,12 +1936,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['HardwareFault']</t>
+          <t>['Normal']</t>
         </is>
       </c>
     </row>
@@ -1990,12 +1990,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 1, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['ParamViolation', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -2287,12 +2287,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0, 0, 0, 0]</t>
+          <t>[1, 1, 0, 0, 0, 1, 0]</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>['Normal', 'SurroundingEnvironment']</t>
+          <t>['Normal', 'SurroundingEnvironment', 'CommunicationIssue']</t>
         </is>
       </c>
     </row>
@@ -2395,12 +2395,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault']</t>
+          <t>['Normal', 'ParamViolation']</t>
         </is>
       </c>
     </row>
@@ -2665,12 +2665,12 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 1, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'SurroundingEnvironment']</t>
         </is>
       </c>
     </row>
@@ -3313,12 +3313,12 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 1, 0]</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'CommunicationIssue']</t>
         </is>
       </c>
     </row>

--- a/classification/droptc/message/drone-sbert/unfreeze/87212562/prediction.xlsx
+++ b/classification/droptc/message/drone-sbert/unfreeze/87212562/prediction.xlsx
@@ -1072,12 +1072,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 0]</t>
+          <t>[0, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault']</t>
+          <t>['HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -1126,12 +1126,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 0, 0, 0, 1]</t>
+          <t>[0, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['HardwareFault', 'SoftwareFault']</t>
+          <t>['SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -1153,12 +1153,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 0, 0, 0, 1]</t>
+          <t>[0, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['HardwareFault', 'SoftwareFault']</t>
+          <t>['SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -1477,12 +1477,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault']</t>
+          <t>['Normal', 'HardwareFault', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -1936,12 +1936,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2287,12 +2287,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0, 0, 1, 0]</t>
+          <t>[1, 1, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>['Normal', 'SurroundingEnvironment', 'CommunicationIssue']</t>
+          <t>['Normal', 'SurroundingEnvironment']</t>
         </is>
       </c>
     </row>
@@ -2395,12 +2395,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 1, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['Normal', 'ParamViolation']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -2422,12 +2422,12 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -3475,12 +3475,12 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault']</t>
+          <t>['Normal', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
